--- a/assets/files/awardees/Blank_Milestone_Chart.xlsx
+++ b/assets/files/awardees/Blank_Milestone_Chart.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAKHTAR\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FC3C86-098A-403F-BC7C-821564CBE653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="11460" windowHeight="3456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="2" r:id="rId1"/>
@@ -380,13 +386,13 @@
     <t>Gantt Chart</t>
   </si>
   <si>
-    <t>Use this sheet only to track expenses for the main grant (including any small supplemental funding - not TECP and Phase IIB, which should be handled on the next two tabs).</t>
+    <t>Use this sheet only to track expenses for the main award (including any small supplemental funding - not TECP and Phase IIB, which should be handled on the next two tabs).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -833,6 +839,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -880,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -913,9 +922,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,6 +974,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1123,13 +1166,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2010,10 +2055,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y849"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2683,13 +2730,13 @@
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3499,26 +3546,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y845"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="4" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="48.33203125" style="3" customWidth="1"/>
     <col min="13" max="25" width="8.88671875" style="3"/>
@@ -3578,7 +3627,7 @@
     <row r="7" spans="1:11" s="3" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -3607,7 +3656,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -3720,7 +3769,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
         <v>12</v>
@@ -4135,12 +4184,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4940,30 +4989,30 @@
     <row r="845" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y845"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="48.33203125" style="3" customWidth="1"/>
     <col min="13" max="25" width="8.88671875" style="3"/>
@@ -5023,7 +5072,7 @@
     <row r="7" spans="1:11" s="3" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -5052,7 +5101,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -5580,12 +5629,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
